--- a/doc/ue_FInternationalization.xlsx
+++ b/doc/ue_FInternationalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D5D2F-E673-4283-9414-AC69D0EDF176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8777B-3FAE-4139-9B18-88330AA3946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>FInternationalization</t>
   </si>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>FICUInternationalization</t>
+  </si>
+  <si>
+    <t>设置完会广播事件，FTextLocalizationManager会触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,7 +401,7 @@
   <dimension ref="B5:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,6 +426,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>3</v>
@@ -430,6 +439,11 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">

--- a/doc/ue_FInternationalization.xlsx
+++ b/doc/ue_FInternationalization.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8777B-3FAE-4139-9B18-88330AA3946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595BCAD6-3C05-4139-B773-B1562F6424C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="L10N" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>FInternationalization</t>
   </si>
@@ -55,6 +56,30 @@
   </si>
   <si>
     <t>设置完会广播事件，FTextLocalizationManager会触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是Content下面的L10N目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就存英文版资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是中文版资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过standlone启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -460,4 +485,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE01FEC-D21D-4600-8FE1-8AA4361A9C54}">
+  <dimension ref="C4:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_FInternationalization.xlsx
+++ b/doc/ue_FInternationalization.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595BCAD6-3C05-4139-B773-B1562F6424C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="L10N" sheetId="2" r:id="rId2"/>
+    <sheet name="资源加载的时候重定向" sheetId="3" r:id="rId3"/>
+    <sheet name="重定向原理" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>FInternationalization</t>
   </si>
@@ -80,13 +81,213 @@
   </si>
   <si>
     <t>通过standlone启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLinkerLoad* GetPackageLinker</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>UPackage*</t>
+  </si>
+  <si>
+    <t>InOuter,</t>
+  </si>
+  <si>
+    <t>const TCHAR*</t>
+  </si>
+  <si>
+    <t>InLongPackageName,</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>LoadFlags,</t>
+  </si>
+  <si>
+    <t>UPackageMap*</t>
+  </si>
+  <si>
+    <t>Sandbox,</t>
+  </si>
+  <si>
+    <t>FGuid*</t>
+  </si>
+  <si>
+    <t>CompatibleGuid,</t>
+  </si>
+  <si>
+    <t>FArchive*</t>
+  </si>
+  <si>
+    <t>InReaderOverride,</t>
+  </si>
+  <si>
+    <t>FUObjectSerializeContext** InOutLoadContext,</t>
+  </si>
+  <si>
+    <t>FLinkerLoad*</t>
+  </si>
+  <si>
+    <t>ImportLinker,</t>
+  </si>
+  <si>
+    <t>const FLinkerInstancingContext* InstancingContext</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization. We also shouldn't redirect script packages.</t>
+  </si>
+  <si>
+    <t>FString PackageNameToLoad = PackageNameToCreate;</t>
+  </si>
+  <si>
+    <t>if (!(GIsEditor || FPackageName::IsScriptPackage(PackageNameToLoad)))</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// Allow delegates to resolve this path</t>
+  </si>
+  <si>
+    <t>PackageNameToLoad = FPackageName::GetDelegateResolvedPackagePath(PackageNameToLoad);</t>
+  </si>
+  <si>
+    <t>PackageNameToLoad = FPackageName::GetLocalizedPackagePath(PackageNameToLoad);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>创建packagelinker的函数里：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器且非Script目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就解释了编辑器模式下为啥不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization. We also shouldn't redirect script or in-memory packages.</t>
+  </si>
+  <si>
+    <t>if (!(GIsEditor || InOuter-&gt;HasAnyPackageFlags(PKG_InMemoryOnly) || FPackageName::IsScriptPackage(PackageNameToLoad)))</t>
+  </si>
+  <si>
+    <t>重定向！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据自己当前的语言，从L10N目录下面读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage</t>
+  </si>
+  <si>
+    <t>在创建linker函数里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::CreateLinker()</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization.</t>
+  </si>
+  <si>
+    <t>if (!GIsEditor)</t>
+  </si>
+  <si>
+    <t>SCOPED_LOADTIMER(CreateLinker_MassagePath);</t>
+  </si>
+  <si>
+    <t>NameToLoad = FPackageName::GetDelegateResolvedPackagePath(NameToLoad);</t>
+  </si>
+  <si>
+    <t>NameToLoad = FPackageName::GetLocalizedPackagePath(NameToLoad);</t>
+  </si>
+  <si>
+    <t>Linker.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为Linker.cpp里面和异步加载的创建Linker里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPackageLocalizationUtil</t>
+  </si>
+  <si>
+    <t>static bool ConvertLocalizedToSource(const FString&amp; InLocalized, FString&amp; OutSource);</t>
+  </si>
+  <si>
+    <t>static bool ConvertSourceToLocalized(const FString&amp; InSource, const FString&amp; InCulture, FString&amp; OutLocalized);</t>
+  </si>
+  <si>
+    <t>static bool GetLocalizedRoot(const FString&amp; InPath, const FString&amp; InCulture, FString&amp; OutLocalized);</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageNameNoCache(const FName InSourcePackageName, const FString&amp; InCultureName) const</t>
+  </si>
+  <si>
+    <t>FString FPackageName::GetLocalizedPackagePath(const FString&amp; InSourcePackagePath)</t>
+  </si>
+  <si>
+    <t>调用FindLocalizedPackageName</t>
+  </si>
+  <si>
+    <t>FString FPackageName::GetLocalizedPackagePath(const FString&amp; InSourcePackagePath, const FString&amp; InCultureName)</t>
+  </si>
+  <si>
+    <t>内部获取当前语言</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageName(const FName InSourcePackageName)</t>
+  </si>
+  <si>
+    <t>return FindLocalizedPackageNameNoCache(InSourcePackageName, CurrentCultureName);</t>
+  </si>
+  <si>
+    <t>指定语言</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageNameForCulture(const FName InSourcePackageName, const FString&amp; InCultureName)</t>
+  </si>
+  <si>
+    <t>底层当前资源到多语言资源路径的转换方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FString CurrentCultureName = FInternationalization::Get().GetCurrentCulture()-&gt;GetName();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前语言：const FString CurrentCultureName = FInternationalization::Get().GetCurrentCulture()-&gt;GetName();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看出来，重定向发生在读取UE的asset资源的时候，创建PackageLinker时候；非资源资源没用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -488,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE01FEC-D21D-4600-8FE1-8AA4361A9C54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,4 +729,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:U59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_FInternationalization.xlsx
+++ b/doc/ue_FInternationalization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>FInternationalization</t>
   </si>
@@ -281,6 +281,14 @@
   </si>
   <si>
     <t>可以看出来，重定向发生在读取UE的asset资源的时候，创建PackageLinker时候；非资源资源没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会判断多语言版本的资源存在不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在了就返回多语言的目录，不存在就返回传入的参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -897,11 +905,17 @@
       <c r="R30" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="T30" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>40</v>
       </c>
+      <c r="T31" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
@@ -941,10 +955,16 @@
       <c r="R41" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="T41" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>40</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -1028,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D29"/>
+  <dimension ref="B4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,52 +1091,58 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>72</v>
       </c>
